--- a/doc/03_内部設計/03_ファイル構成一覧表_国士無双.xlsx
+++ b/doc/03_内部設計/03_ファイル構成一覧表_国士無双.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NextCloud\内部共有用\04_取引案件別\19_SEプラス\2024_Dojo\6月\PlusDojo6月作成ドキュメントテンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B5\doc\03_内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE3A67F-EAA6-4199-8272-F4FAB37202CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76F29DB-AE9F-40EE-BE8E-D234D2F2A4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10520" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="155">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -168,6 +168,849 @@
     <t>完了</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>servlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面初期表示、ログイン処理用。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SignupServlet,java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WelcomeServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HomeServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MainServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RuleServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MyPageServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HistoryServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FriendServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GuideServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dao</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UsersDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HistorysDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpponentsDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>History_DetailsDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HandsDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MypagesDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DorasDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TeyakusDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FriendsDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TilesDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YakusDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Users.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Historys.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Opponents.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>History_Details.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hands.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Doras.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Teyakus.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Friends.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mypages.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tiles.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yakus.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/WEB-INF/jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>signup.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>welcome.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>home.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>main.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rule.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mypage.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>history.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>friend.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>guide.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>javascript</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>common.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>signup.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>welcome.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>home.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>main.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rule.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mypage.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>history.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>friend.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>guide.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>signup.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>welcome.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>home.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>main.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rule.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mypage.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>friend.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>guide.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録画面初期表示、新規登録処理用。</t>
+    <rPh sb="0" eb="8">
+      <t>シンキトウロクガメンショキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ショリヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録完了画面初期表示</t>
+    <rPh sb="0" eb="6">
+      <t>トウロクカンリョウガメン</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ショキヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム画面初期表示</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メイン画面初期表示</t>
+    <rPh sb="3" eb="7">
+      <t>ガメンショキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページ画面初期表示</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ショキヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対戦履歴画面初期表示</t>
+    <rPh sb="0" eb="6">
+      <t>タイセンリレキガメン</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ショキヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリガイド画面初期表示</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ショキヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>usersテーブルアクセス用DAO。</t>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>historysテーブルアクセス用DAO。</t>
+    <rPh sb="16" eb="17">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>opponentsテーブルアクセス用DAO。</t>
+    <rPh sb="17" eb="18">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>history_detailsテーブルアクセス用DAO。</t>
+    <rPh sb="23" eb="24">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>handsテーブルアクセス用DAO。</t>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dorasテーブルアクセス用DAO。</t>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>teyakusテーブルアクセス用DAO。</t>
+    <rPh sb="15" eb="16">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>friendsテーブルアクセス用DAO。</t>
+    <rPh sb="15" eb="16">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mypagesテーブルアクセス用DAO。</t>
+    <rPh sb="15" eb="16">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tilesテーブルアクセス用DAO。</t>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yakusテーブルアクセス用DAO。</t>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>usersテーブルのデータ保持用クラス</t>
+    <rPh sb="13" eb="16">
+      <t>ホジヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>historysテーブルのデータ保持用クラス</t>
+    <rPh sb="16" eb="19">
+      <t>ホジヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>opponentsテーブルのデータ保持用クラス</t>
+    <rPh sb="17" eb="20">
+      <t>ホジヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>history_detailsテーブルのデータ保持用クラス</t>
+    <rPh sb="23" eb="26">
+      <t>ホジヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>handsテーブルのデータ保持用クラス</t>
+    <rPh sb="13" eb="16">
+      <t>ホジヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dorasテーブルのデータ保持用クラス</t>
+    <rPh sb="13" eb="16">
+      <t>ホジヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>teyakusテーブルのデータ保持用クラス</t>
+    <rPh sb="15" eb="18">
+      <t>ホジヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>friendsテーブルのデータ保持用クラス</t>
+    <rPh sb="15" eb="18">
+      <t>ホジヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mypagesテーブルのデータ保持用クラス</t>
+    <rPh sb="15" eb="18">
+      <t>ホジヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tilesテーブルのデータ保持用クラス</t>
+    <rPh sb="13" eb="16">
+      <t>ホジヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yakusテーブルのデータ保持用クラス</t>
+    <rPh sb="13" eb="16">
+      <t>ホジヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面用jsp。</t>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録画面用jsp。</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録完了画面用jsp。</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクカンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム画面用jsp。</t>
+    <rPh sb="3" eb="6">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対局補助画面用jsp。</t>
+    <rPh sb="0" eb="4">
+      <t>タイキョクホジョ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページ画面用jsp。</t>
+    <rPh sb="5" eb="8">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対戦履歴画面用jsp。</t>
+    <rPh sb="0" eb="4">
+      <t>タイセンリレキ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フレンド一覧画面用jsp。</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フレンド一覧画面初期表示</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="12">
+      <t>ガメンショキヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリガイド画面用jsp。</t>
+    <rPh sb="6" eb="9">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全画面共通JavaScript。</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面用JavaScript。</t>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録画面用JavaScript。</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録完了画面用JavaScript。</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクカンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム画面用JavaScript。</t>
+    <rPh sb="3" eb="6">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対局補助画面用JavaScript。</t>
+    <rPh sb="0" eb="4">
+      <t>タイキョクホジョ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>麻雀ガイド画面用JavaScript。</t>
+    <rPh sb="0" eb="2">
+      <t>マージャン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>麻雀ガイド画面用jsp。</t>
+    <rPh sb="0" eb="2">
+      <t>マージャン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>麻雀ガイド画面初期表示</t>
+    <rPh sb="0" eb="2">
+      <t>マージャン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ショキヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページ画面用JavaScript。</t>
+    <rPh sb="5" eb="8">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対戦履歴画面用JavaScript。</t>
+    <rPh sb="0" eb="4">
+      <t>タイセンリレキ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フレンド一覧画面用JavaScript。</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリガイド画面用JavaScript。</t>
+    <rPh sb="6" eb="9">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面用CSS。</t>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録画面用CSS。</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録完了画面用CSS。</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクカンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム画面用CSS。</t>
+    <rPh sb="3" eb="6">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対局補助画面用CSS。</t>
+    <rPh sb="0" eb="4">
+      <t>タイキョクホジョ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>麻雀ガイド画面用CSS。</t>
+    <rPh sb="0" eb="2">
+      <t>マージャン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページ画面用CSS。</t>
+    <rPh sb="5" eb="8">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フレンド一覧画面用CSS。</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリガイド画面用CSS。</t>
+    <rPh sb="6" eb="9">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>稲村</t>
+    <rPh sb="0" eb="2">
+      <t>イナムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮下、木村</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤシタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桃田</t>
+    <rPh sb="0" eb="2">
+      <t>モモタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>米川</t>
+    <rPh sb="0" eb="2">
+      <t>ヨネカワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -193,7 +1036,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +1046,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,7 +1085,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -244,6 +1093,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -560,30 +1418,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="16.125" customWidth="1"/>
+    <col min="14" max="14" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -621,7 +1479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -629,10 +1487,18 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -641,18 +1507,26 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C36" si="0">ROW()-2</f>
+        <f t="shared" ref="C4:C64" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -661,7 +1535,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -669,10 +1543,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -681,7 +1563,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -689,10 +1571,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -701,7 +1591,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -709,10 +1599,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -721,15 +1619,23 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -738,15 +1644,23 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -755,15 +1669,23 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -772,15 +1694,23 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -789,15 +1719,23 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -806,15 +1744,23 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -823,15 +1769,23 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -840,15 +1794,23 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -857,15 +1819,23 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -874,15 +1844,23 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -891,15 +1869,23 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -908,15 +1894,23 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -925,15 +1919,23 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -942,15 +1944,23 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -959,15 +1969,23 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -976,15 +1994,23 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -993,15 +2019,23 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1010,15 +2044,23 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1027,15 +2069,23 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1044,15 +2094,23 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1061,15 +2119,23 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1078,15 +2144,23 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1095,15 +2169,23 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1112,15 +2194,23 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1129,15 +2219,23 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1146,15 +2244,23 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1163,15 +2269,23 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1180,15 +2294,23 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C35" s="1">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C35" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="D35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1197,15 +2319,23 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C36" s="1">
+    <row r="36" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C36" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="D36" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1214,11 +2344,726 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C37" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C38" s="4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C39" s="4">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H39" s="1">
+        <v>2</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C40" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C41" s="4">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C42" s="4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C43" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C44" s="4">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C45" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C46" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C47" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C48" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C49" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C50" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C51" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C52" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C53" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C54" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C55" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C56" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C57" s="1">
+        <v>55</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C58" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C59" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C60" s="1">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C61" s="1">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C62" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C63" s="1">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C64" s="1">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C2:N25" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
+  <autoFilter ref="C2:N24" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M36" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M64" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
       <formula1>$A$2:$A$7</formula1>
     </dataValidation>
   </dataValidations>
@@ -1233,6 +3078,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -1403,15 +3257,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
@@ -1430,6 +3275,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1446,12 +3299,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/03_内部設計/03_ファイル構成一覧表_国士無双.xlsx
+++ b/doc/03_内部設計/03_ファイル構成一覧表_国士無双.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B5\doc\03_内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76F29DB-AE9F-40EE-BE8E-D234D2F2A4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7F0E8E-BBE7-4D70-AB6D-D859F532EA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="161">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1011,6 +1011,45 @@
     <t>米川</t>
     <rPh sb="0" eb="2">
       <t>ヨネカワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>history.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対戦履歴画面用CSS。</t>
+    <rPh sb="0" eb="4">
+      <t>タイセンリレキ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全画面共通CSS。</t>
+    <rPh sb="0" eb="5">
+      <t>ゼンガメンキョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>common.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮下</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤシタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木村</t>
+    <rPh sb="0" eb="2">
+      <t>キムラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1036,7 +1075,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1046,12 +1085,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,7 +1118,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1093,15 +1126,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1418,30 +1442,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="16.09765625" customWidth="1"/>
+    <col min="14" max="14" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1479,7 +1503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1505,14 +1529,16 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N3" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C64" si="0">ROW()-2</f>
+        <f t="shared" ref="C4:C66" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1533,9 +1559,11 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N4" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1561,9 +1589,11 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N5" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1589,9 +1619,11 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N6" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1617,9 +1649,11 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N7" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1642,9 +1676,11 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N8" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1667,9 +1703,11 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N9" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1692,9 +1730,11 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N10" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1719,7 +1759,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1742,9 +1782,11 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N12" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1767,9 +1809,11 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N13" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1792,9 +1836,11 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N14" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1817,9 +1863,11 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N15" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1842,9 +1890,11 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="N16" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1867,9 +1917,11 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="N17" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1892,9 +1944,11 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="N18" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1917,9 +1971,11 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="N19" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1944,7 +2000,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1967,9 +2023,11 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="N21" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1992,9 +2050,11 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="N22" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2017,9 +2077,11 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="N23" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2042,9 +2104,11 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="N24" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2067,9 +2131,11 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="N25" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2092,9 +2158,11 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="N26" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2117,9 +2185,11 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="N27" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2142,9 +2212,11 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="N28" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2167,9 +2239,11 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="N29" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2192,9 +2266,11 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="N30" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2219,7 +2295,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2242,9 +2318,11 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="N32" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2267,9 +2345,11 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="N33" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2292,23 +2372,25 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C35" s="4">
+      <c r="N34" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="1" t="s">
         <v>118</v>
       </c>
       <c r="H35" s="1"/>
@@ -2317,23 +2399,25 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C36" s="4">
+      <c r="N35" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="1" t="s">
         <v>119</v>
       </c>
       <c r="H36" s="1"/>
@@ -2342,23 +2426,25 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C37" s="4">
+      <c r="N36" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="1" t="s">
         <v>120</v>
       </c>
       <c r="H37" s="1"/>
@@ -2367,23 +2453,25 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C38" s="4">
+      <c r="N37" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="1" t="s">
         <v>121</v>
       </c>
       <c r="H38" s="1"/>
@@ -2392,23 +2480,25 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C39" s="4">
+      <c r="N38" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="1" t="s">
         <v>122</v>
       </c>
       <c r="H39" s="1">
@@ -2423,7 +2513,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2448,23 +2538,25 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C41" s="4">
+      <c r="N40" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H41" s="1"/>
@@ -2477,21 +2569,21 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C42" s="4">
+    <row r="42" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="1" t="s">
         <v>124</v>
       </c>
       <c r="H42" s="1">
@@ -2506,7 +2598,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2531,21 +2623,21 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C44" s="4">
+    <row r="44" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="1" t="s">
         <v>127</v>
       </c>
       <c r="H44" s="1">
@@ -2560,7 +2652,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2585,7 +2677,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2608,9 +2700,11 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="N46" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C47" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2633,9 +2727,11 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="N47" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C48" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2658,9 +2754,11 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="N48" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C49" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2671,7 +2769,7 @@
       <c r="E49" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" t="s">
         <v>72</v>
       </c>
       <c r="G49" s="1" t="s">
@@ -2683,9 +2781,11 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="N49" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C50" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2708,9 +2808,11 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="N50" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C51" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2733,9 +2835,11 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="N51" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C52" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2758,9 +2862,11 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="N52" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C53" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2783,9 +2889,11 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="N53" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C54" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2810,7 +2918,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C55" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2833,9 +2941,11 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="N55" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C56" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2847,10 +2957,10 @@
         <v>80</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -2860,7 +2970,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="57" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C57" s="1">
         <v>55</v>
       </c>
@@ -2871,10 +2981,10 @@
         <v>80</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -2882,9 +2992,11 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="N57" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2896,10 +3008,10 @@
         <v>80</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -2907,9 +3019,11 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="N58" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C59" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2920,11 +3034,11 @@
       <c r="E59" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>83</v>
+      <c r="F59" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -2932,9 +3046,11 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="N59" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C60" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2945,11 +3061,11 @@
       <c r="E60" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>84</v>
+      <c r="F60" t="s">
+        <v>83</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -2957,9 +3073,11 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="N60" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C61" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2971,10 +3089,10 @@
         <v>80</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -2982,9 +3100,11 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="N61" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C62" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2996,10 +3116,10 @@
         <v>80</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -3007,9 +3127,11 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="N62" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C63" s="1">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3021,10 +3143,10 @@
         <v>80</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -3032,9 +3154,11 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="N63" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C64" s="1">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3046,10 +3170,10 @@
         <v>80</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -3057,13 +3181,67 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
+      <c r="N64" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C65" s="1">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C66" s="1">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="C2:N24" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M64" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M66" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
       <formula1>$A$2:$A$7</formula1>
     </dataValidation>
   </dataValidations>
@@ -3072,18 +3250,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3258,6 +3436,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -3270,14 +3456,6 @@
     <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
     <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/03_内部設計/03_ファイル構成一覧表_国士無双.xlsx
+++ b/doc/03_内部設計/03_ファイル構成一覧表_国士無双.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B5\doc\03_内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7F0E8E-BBE7-4D70-AB6D-D859F532EA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C2CA62-A132-4E10-AA22-EEF3820110DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="169">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1050,6 +1050,80 @@
     <t>木村</t>
     <rPh sb="0" eb="2">
       <t>キムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gameset.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補助リザルト画面用jsp。</t>
+    <rPh sb="0" eb="2">
+      <t>ホジョ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補助試合終了画面用jsp。</t>
+    <rPh sb="0" eb="2">
+      <t>ホジョ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>シアイシュウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ResultServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GamesetServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>麻雀補助結果画面初期表示</t>
+    <rPh sb="0" eb="2">
+      <t>マージャン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ショキヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>麻雀補助試合終了画面初期表示</t>
+    <rPh sb="0" eb="4">
+      <t>マージャンホジョ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>シアイシュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ショキヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1442,10 +1516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A1:N66"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1538,7 +1612,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C66" si="0">ROW()-2</f>
+        <f t="shared" ref="C4:C70" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1650,7 +1724,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
@@ -1665,10 +1739,10 @@
         <v>18</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1677,7 +1751,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
@@ -1692,10 +1766,10 @@
         <v>18</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1704,7 +1778,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
@@ -1719,10 +1793,10 @@
         <v>18</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1731,7 +1805,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
@@ -1746,10 +1820,10 @@
         <v>18</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1757,7 +1831,9 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C12" s="1">
@@ -1771,10 +1847,10 @@
         <v>18</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1783,7 +1859,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
@@ -1795,13 +1871,13 @@
         <v>17</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1809,9 +1885,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C14" s="1">
@@ -1822,13 +1896,13 @@
         <v>17</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1837,7 +1911,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
@@ -1852,10 +1926,10 @@
         <v>30</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1864,7 +1938,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
@@ -1879,10 +1953,10 @@
         <v>30</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1891,7 +1965,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.4">
@@ -1906,10 +1980,10 @@
         <v>30</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1918,7 +1992,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.4">
@@ -1933,10 +2007,10 @@
         <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1945,7 +2019,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.4">
@@ -1960,10 +2034,10 @@
         <v>30</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1972,7 +2046,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.4">
@@ -1987,10 +2061,10 @@
         <v>30</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1998,7 +2072,9 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="N20" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C21" s="1">
@@ -2012,10 +2088,10 @@
         <v>30</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2024,7 +2100,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.4">
@@ -2039,10 +2115,10 @@
         <v>30</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2050,9 +2126,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="N22" s="1"/>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C23" s="1">
@@ -2066,10 +2140,10 @@
         <v>30</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2078,7 +2152,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.4">
@@ -2090,13 +2164,13 @@
         <v>17</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2105,7 +2179,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.4">
@@ -2117,13 +2191,13 @@
         <v>17</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2132,7 +2206,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.4">
@@ -2147,10 +2221,10 @@
         <v>42</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2159,7 +2233,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.4">
@@ -2174,10 +2248,10 @@
         <v>42</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -2186,7 +2260,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.4">
@@ -2201,10 +2275,10 @@
         <v>42</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2213,7 +2287,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.4">
@@ -2228,10 +2302,10 @@
         <v>42</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2240,7 +2314,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.4">
@@ -2255,10 +2329,10 @@
         <v>42</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2267,7 +2341,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.4">
@@ -2282,10 +2356,10 @@
         <v>42</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2293,7 +2367,9 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
+      <c r="N31" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C32" s="1">
@@ -2307,10 +2383,10 @@
         <v>42</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2319,7 +2395,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.4">
@@ -2334,10 +2410,10 @@
         <v>42</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2345,9 +2421,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="N33" s="1"/>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C34" s="1">
@@ -2361,10 +2435,10 @@
         <v>42</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2373,7 +2447,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.4">
@@ -2382,16 +2456,16 @@
         <v>33</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2400,7 +2474,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.4">
@@ -2409,16 +2483,16 @@
         <v>34</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2427,7 +2501,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="3:14" x14ac:dyDescent="0.4">
@@ -2442,10 +2516,10 @@
         <v>55</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2469,10 +2543,10 @@
         <v>55</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2496,21 +2570,19 @@
         <v>55</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H39" s="1">
-        <v>2</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.4">
@@ -2525,21 +2597,19 @@
         <v>55</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H40" s="1">
-        <v>1</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="3:14" x14ac:dyDescent="0.4">
@@ -2554,19 +2624,21 @@
         <v>55</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H41" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="H41" s="1">
+        <v>2</v>
+      </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.4">
@@ -2581,10 +2653,10 @@
         <v>55</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="H42" s="1">
         <v>1</v>
@@ -2595,7 +2667,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="3:14" x14ac:dyDescent="0.4">
@@ -2610,18 +2682,22 @@
         <v>55</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H43" s="1"/>
+        <v>164</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
+      <c r="N43" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="44" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C44" s="1">
@@ -2635,10 +2711,10 @@
         <v>55</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="H44" s="1">
         <v>1</v>
@@ -2658,16 +2734,16 @@
         <v>43</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2675,7 +2751,9 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
+      <c r="N45" s="1" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="46" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C46" s="1">
@@ -2683,25 +2761,27 @@
         <v>44</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H46" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1</v>
+      </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="3:14" x14ac:dyDescent="0.4">
@@ -2710,16 +2790,16 @@
         <v>45</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -2727,9 +2807,7 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-      <c r="N47" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="N47" s="1"/>
     </row>
     <row r="48" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C48" s="1">
@@ -2737,25 +2815,27 @@
         <v>46</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H48" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="3:14" x14ac:dyDescent="0.4">
@@ -2769,11 +2849,11 @@
       <c r="E49" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F49" t="s">
-        <v>72</v>
+      <c r="F49" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -2781,9 +2861,7 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="N49" s="1"/>
     </row>
     <row r="50" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C50" s="1">
@@ -2797,10 +2875,10 @@
         <v>69</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -2809,7 +2887,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="3:14" x14ac:dyDescent="0.4">
@@ -2824,10 +2902,10 @@
         <v>69</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -2836,7 +2914,7 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="3:14" x14ac:dyDescent="0.4">
@@ -2851,10 +2929,10 @@
         <v>69</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -2877,11 +2955,11 @@
       <c r="E53" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>76</v>
+      <c r="F53" t="s">
+        <v>72</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -2890,7 +2968,7 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="3:14" x14ac:dyDescent="0.4">
@@ -2905,10 +2983,10 @@
         <v>69</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -2916,7 +2994,9 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
+      <c r="N54" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="55" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C55" s="1">
@@ -2930,10 +3010,10 @@
         <v>69</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -2951,16 +3031,16 @@
         <v>54</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -2968,23 +3048,26 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
+      <c r="N56" s="1" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="57" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C57" s="1">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -2993,7 +3076,7 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="3:14" x14ac:dyDescent="0.4">
@@ -3002,16 +3085,16 @@
         <v>56</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -3019,9 +3102,7 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
-      <c r="N58" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="N58" s="1"/>
     </row>
     <row r="59" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C59" s="1">
@@ -3029,16 +3110,16 @@
         <v>57</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -3047,7 +3128,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="3:14" x14ac:dyDescent="0.4">
@@ -3061,11 +3142,11 @@
       <c r="E60" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F60" t="s">
-        <v>83</v>
+      <c r="F60" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -3073,14 +3154,11 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
-      <c r="N60" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="N60" s="1"/>
     </row>
     <row r="61" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C61" s="1">
-        <f t="shared" si="0"/>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>79</v>
@@ -3089,10 +3167,10 @@
         <v>80</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -3101,7 +3179,7 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="3:14" x14ac:dyDescent="0.4">
@@ -3116,10 +3194,10 @@
         <v>80</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -3128,7 +3206,7 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="3:14" x14ac:dyDescent="0.4">
@@ -3143,10 +3221,10 @@
         <v>80</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -3169,11 +3247,11 @@
       <c r="E64" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>155</v>
+      <c r="F64" t="s">
+        <v>83</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -3182,7 +3260,7 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="3:14" x14ac:dyDescent="0.4">
@@ -3197,10 +3275,10 @@
         <v>80</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -3208,7 +3286,9 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
+      <c r="N65" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="66" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C66" s="1">
@@ -3222,10 +3302,10 @@
         <v>80</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -3237,15 +3317,121 @@
         <v>153</v>
       </c>
     </row>
+    <row r="67" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C67" s="1">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C68" s="1">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C69" s="1">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C70" s="1">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="C2:N24" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M66" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M70" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
       <formula1>$A$2:$A$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/03_内部設計/03_ファイル構成一覧表_国士無双.xlsx
+++ b/doc/03_内部設計/03_ファイル構成一覧表_国士無双.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B5\doc\03_内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C2CA62-A132-4E10-AA22-EEF3820110DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8A54DA-8359-413C-9677-F7871C4AD011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="177">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1062,16 +1062,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>補助リザルト画面用jsp。</t>
-    <rPh sb="0" eb="2">
-      <t>ホジョ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>補助試合終了画面用jsp。</t>
     <rPh sb="0" eb="2">
       <t>ホジョ</t>
@@ -1124,6 +1114,87 @@
     </rPh>
     <rPh sb="10" eb="14">
       <t>ショキヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Result2Servlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>麻雀補助結果画面(流局か上がりか)初期表示</t>
+    <rPh sb="0" eb="4">
+      <t>マージャンホジョ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ケッカガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>リュウキョク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ショキヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TotalServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計点表示画面初期表示</t>
+    <rPh sb="0" eb="3">
+      <t>ゴウケイテン</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ヒョウジガメン</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ショキヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result2.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補助リザルト(ツモ、ロン)画面用jsp。</t>
+    <rPh sb="0" eb="2">
+      <t>ホジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補助リザルト(流局、上がり)画面用jsp。</t>
+    <rPh sb="0" eb="2">
+      <t>ホジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>リュウキョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>total.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計点表示画面用jsp。</t>
+    <rPh sb="0" eb="5">
+      <t>ゴウケイテンヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ガメンヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1192,7 +1263,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1200,6 +1271,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1516,30 +1590,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView tabSelected="1" topLeftCell="B39" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="16.125" customWidth="1"/>
+    <col min="14" max="14" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1577,7 +1651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1597,7 +1671,7 @@
       <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1607,12 +1681,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C70" si="0">ROW()-2</f>
+        <f t="shared" ref="C4:C74" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1637,7 +1711,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1667,7 +1741,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1697,7 +1771,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1727,7 +1801,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1739,10 +1813,10 @@
         <v>18</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1754,9 +1828,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C9" s="1">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1766,10 +1839,10 @@
         <v>18</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1781,9 +1854,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C10" s="1">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1793,10 +1865,10 @@
         <v>18</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1805,10 +1877,10 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1820,10 +1892,10 @@
         <v>18</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1832,10 +1904,10 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1847,10 +1919,10 @@
         <v>18</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1859,10 +1931,10 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1874,10 +1946,10 @@
         <v>18</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1885,9 +1957,11 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N13" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1899,10 +1973,10 @@
         <v>18</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1911,10 +1985,10 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1923,13 +1997,13 @@
         <v>17</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1937,11 +2011,9 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1950,13 +2022,13 @@
         <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1965,10 +2037,10 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1980,10 +2052,10 @@
         <v>30</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1992,10 +2064,10 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2007,10 +2079,10 @@
         <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -2019,10 +2091,10 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2034,10 +2106,10 @@
         <v>30</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -2046,10 +2118,10 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2061,10 +2133,10 @@
         <v>30</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -2073,10 +2145,10 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2088,10 +2160,10 @@
         <v>30</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2100,10 +2172,10 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2115,10 +2187,10 @@
         <v>30</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2126,9 +2198,11 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="N22" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2140,10 +2214,10 @@
         <v>30</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2152,10 +2226,10 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2167,10 +2241,10 @@
         <v>30</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2178,11 +2252,9 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2194,10 +2266,10 @@
         <v>30</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2206,10 +2278,10 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2218,13 +2290,13 @@
         <v>17</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2233,10 +2305,10 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2245,13 +2317,13 @@
         <v>17</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -2260,10 +2332,10 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2275,10 +2347,10 @@
         <v>42</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2287,10 +2359,10 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2302,10 +2374,10 @@
         <v>42</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2314,10 +2386,10 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2329,10 +2401,10 @@
         <v>42</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2341,10 +2413,10 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2356,10 +2428,10 @@
         <v>42</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2368,10 +2440,10 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2383,10 +2455,10 @@
         <v>42</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2395,10 +2467,10 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2410,10 +2482,10 @@
         <v>42</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2421,9 +2493,11 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="N33" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2435,10 +2509,10 @@
         <v>42</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2447,10 +2521,10 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2462,10 +2536,10 @@
         <v>42</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2473,11 +2547,9 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2489,10 +2561,10 @@
         <v>42</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2501,25 +2573,25 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2528,25 +2600,25 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2555,10 +2627,10 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2570,10 +2642,10 @@
         <v>55</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2585,7 +2657,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2597,10 +2669,10 @@
         <v>55</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2612,7 +2684,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2624,24 +2696,22 @@
         <v>55</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H41" s="1">
-        <v>2</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2653,24 +2723,22 @@
         <v>55</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H42" s="1">
-        <v>1</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2682,24 +2750,22 @@
         <v>55</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>162</v>
+        <v>60</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H43" s="1">
-        <v>1</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2711,24 +2777,22 @@
         <v>55</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H44" s="1">
-        <v>1</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2740,10 +2804,10 @@
         <v>55</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2752,10 +2816,10 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2767,24 +2831,22 @@
         <v>55</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>63</v>
+        <v>175</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H46" s="1">
-        <v>1</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C47" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2796,10 +2858,10 @@
         <v>55</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -2807,9 +2869,11 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="N47" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C48" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2821,14 +2885,12 @@
         <v>55</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H48" s="1">
-        <v>1</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -2838,22 +2900,22 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C49" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -2861,24 +2923,26 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="N49" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C50" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -2887,25 +2951,25 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C51" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -2913,26 +2977,24 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-      <c r="N51" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C52" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -2941,10 +3003,10 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C53" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2955,11 +3017,11 @@
       <c r="E53" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F53" t="s">
-        <v>72</v>
+      <c r="F53" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -2967,11 +3029,9 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
-      <c r="N53" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C54" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2983,10 +3043,10 @@
         <v>69</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -2995,10 +3055,10 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C55" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3010,10 +3070,10 @@
         <v>69</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -3022,10 +3082,10 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C56" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3037,10 +3097,10 @@
         <v>69</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -3052,7 +3112,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C57" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3063,11 +3123,11 @@
       <c r="E57" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>76</v>
+      <c r="F57" t="s">
+        <v>72</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -3076,10 +3136,10 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3091,10 +3151,10 @@
         <v>69</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -3102,9 +3162,11 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="N58" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C59" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3116,10 +3178,10 @@
         <v>69</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -3131,22 +3193,22 @@
         <v>153</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C60" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -3154,23 +3216,26 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="N60" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C61" s="1">
-        <v>55</v>
+        <f t="shared" si="0"/>
+        <v>59</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -3179,25 +3244,25 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C62" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -3205,26 +3270,24 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
-      <c r="N62" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C63" s="1">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -3233,10 +3296,10 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C64" s="1">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3247,11 +3310,11 @@
       <c r="E64" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F64" t="s">
-        <v>83</v>
+      <c r="F64" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -3259,14 +3322,11 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
-      <c r="N64" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="65" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C65" s="1">
-        <f t="shared" si="0"/>
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>79</v>
@@ -3275,10 +3335,10 @@
         <v>80</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -3287,10 +3347,10 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="66" spans="3:14" x14ac:dyDescent="0.4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C66" s="1">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3302,10 +3362,10 @@
         <v>80</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -3314,10 +3374,10 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="67" spans="3:14" x14ac:dyDescent="0.4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C67" s="1">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -3329,10 +3389,10 @@
         <v>80</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -3344,7 +3404,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="68" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="68" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C68" s="1">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -3355,11 +3415,11 @@
       <c r="E68" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>155</v>
+      <c r="F68" t="s">
+        <v>83</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -3368,10 +3428,10 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="69" spans="3:14" x14ac:dyDescent="0.4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C69" s="1">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -3383,10 +3443,10 @@
         <v>80</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -3394,9 +3454,11 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-    </row>
-    <row r="70" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="N69" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C70" s="1">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -3408,10 +3470,10 @@
         <v>80</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -3423,10 +3485,116 @@
         <v>153</v>
       </c>
     </row>
+    <row r="71" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C71" s="1">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C72" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C73" s="1">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C74" s="1">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M70" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M74" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
       <formula1>$A$2:$A$7</formula1>
     </dataValidation>
   </dataValidations>
@@ -3436,18 +3604,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3622,14 +3790,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -3642,6 +3802,14 @@
     <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
     <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/03_内部設計/03_ファイル構成一覧表_国士無双.xlsx
+++ b/doc/03_内部設計/03_ファイル構成一覧表_国士無双.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B5\doc\03_内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8A54DA-8359-413C-9677-F7871C4AD011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE64C4CA-CB93-4A00-B6D6-7D42F2320ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="193">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1195,6 +1195,124 @@
     </rPh>
     <rPh sb="5" eb="8">
       <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result2.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>total.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gameset.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補助リザルト(ロン、ツモ)画面用JavaScript。</t>
+    <rPh sb="0" eb="2">
+      <t>ホジョ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補助リザルト(流局、上がり)画面用JavaScript。</t>
+    <rPh sb="0" eb="2">
+      <t>ホジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>リュウキョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計点表示画面用JavaScript。</t>
+    <rPh sb="0" eb="8">
+      <t>ゴウケイテンヒョウジガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補助試合終了画面用JavaScript。</t>
+    <rPh sb="0" eb="4">
+      <t>ホジョシアイ</t>
+    </rPh>
+    <rPh sb="4" eb="9">
+      <t>シュウリョウガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result2.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>total.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gameset.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補助リザルト(流局、上がり)画面用CSS。</t>
+    <rPh sb="0" eb="2">
+      <t>ホジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>リュウキョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補助リザルト(ロン、ツモ)画面用CSS。</t>
+    <rPh sb="0" eb="2">
+      <t>ホジョ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計点表示画面用CSS。</t>
+    <rPh sb="0" eb="8">
+      <t>ゴウケイテンヒョウジガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補助試合終了画面用CSS。</t>
+    <rPh sb="0" eb="4">
+      <t>ホジョシアイ</t>
+    </rPh>
+    <rPh sb="4" eb="9">
+      <t>シュウリョウガメンヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1590,10 +1708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A1:N74"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B39" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView tabSelected="1" topLeftCell="C57" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="N74" sqref="N74:N77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1686,7 +1804,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C74" si="0">ROW()-2</f>
+        <f t="shared" ref="C4:C82" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -3178,10 +3296,10 @@
         <v>69</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -3190,7 +3308,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="3:14" x14ac:dyDescent="0.45">
@@ -3205,10 +3323,10 @@
         <v>69</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -3217,7 +3335,7 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="3:14" x14ac:dyDescent="0.45">
@@ -3232,10 +3350,10 @@
         <v>69</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -3244,7 +3362,7 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="3:14" x14ac:dyDescent="0.45">
@@ -3259,10 +3377,10 @@
         <v>69</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -3270,7 +3388,9 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
+      <c r="N62" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="63" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C63" s="1">
@@ -3284,10 +3404,10 @@
         <v>69</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -3305,16 +3425,16 @@
         <v>62</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -3322,23 +3442,26 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
+      <c r="N64" s="1" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="65" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C65" s="1">
-        <v>55</v>
+        <f t="shared" si="0"/>
+        <v>63</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -3347,7 +3470,7 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="3:14" x14ac:dyDescent="0.45">
@@ -3356,16 +3479,16 @@
         <v>64</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -3373,9 +3496,7 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
-      <c r="N66" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="N66" s="1"/>
     </row>
     <row r="67" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C67" s="1">
@@ -3383,16 +3504,16 @@
         <v>65</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -3401,7 +3522,7 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="3:14" x14ac:dyDescent="0.45">
@@ -3415,11 +3536,11 @@
       <c r="E68" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F68" t="s">
-        <v>83</v>
+      <c r="F68" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -3427,14 +3548,11 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
-      <c r="N68" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="N68" s="1"/>
     </row>
     <row r="69" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C69" s="1">
-        <f t="shared" si="0"/>
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>79</v>
@@ -3443,10 +3561,10 @@
         <v>80</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -3455,7 +3573,7 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="3:14" x14ac:dyDescent="0.45">
@@ -3470,10 +3588,10 @@
         <v>80</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -3482,7 +3600,7 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="3:14" x14ac:dyDescent="0.45">
@@ -3497,10 +3615,10 @@
         <v>80</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -3523,11 +3641,11 @@
       <c r="E72" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>155</v>
+      <c r="F72" t="s">
+        <v>83</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -3536,7 +3654,7 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="3:14" x14ac:dyDescent="0.45">
@@ -3551,10 +3669,10 @@
         <v>80</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -3562,7 +3680,9 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
+      <c r="N73" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="74" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C74" s="1">
@@ -3576,10 +3696,10 @@
         <v>80</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>88</v>
+        <v>185</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -3588,13 +3708,227 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C75" s="1">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C76" s="1">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C77" s="1">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C78" s="1">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C79" s="1">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C80" s="1">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C81" s="1">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C82" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1" t="s">
         <v>153</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M74" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M82" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
       <formula1>$A$2:$A$7</formula1>
     </dataValidation>
   </dataValidations>
@@ -3604,18 +3938,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3790,6 +4124,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -3802,14 +4144,6 @@
     <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
     <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/03_内部設計/03_ファイル構成一覧表_国士無双.xlsx
+++ b/doc/03_内部設計/03_ファイル構成一覧表_国士無双.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B5\doc\03_内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE64C4CA-CB93-4A00-B6D6-7D42F2320ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88888161-B4BD-4F89-83A9-819A8A1978AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="2532" yWindow="1488" windowWidth="17304" windowHeight="10176" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -240,10 +240,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>History_DetailsDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>HandsDao.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -285,10 +281,6 @@
   </si>
   <si>
     <t>Opponents.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>History_Details.java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1314,6 +1306,14 @@
     <rPh sb="4" eb="9">
       <t>シュウリョウガメンヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HistoryDetailsDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HistoryDetails.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1710,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C57" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="N74" sqref="N74:N77"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1796,7 +1796,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
@@ -1817,7 +1817,7 @@
         <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1826,7 +1826,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
@@ -1847,7 +1847,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1856,7 +1856,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
@@ -1877,7 +1877,7 @@
         <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1886,7 +1886,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
@@ -1907,16 +1907,18 @@
         <v>24</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="H7" s="3">
+        <v>45460</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
@@ -1931,10 +1933,10 @@
         <v>18</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1943,7 +1945,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
@@ -1957,10 +1959,10 @@
         <v>18</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1969,7 +1971,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
@@ -1983,10 +1985,10 @@
         <v>18</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1995,7 +1997,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
@@ -2010,10 +2012,10 @@
         <v>18</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -2022,7 +2024,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
@@ -2040,7 +2042,7 @@
         <v>25</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -2049,7 +2051,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
@@ -2067,7 +2069,7 @@
         <v>26</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -2076,7 +2078,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
@@ -2094,7 +2096,7 @@
         <v>27</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2103,7 +2105,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
@@ -2121,7 +2123,7 @@
         <v>28</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -2146,7 +2148,7 @@
         <v>29</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -2155,7 +2157,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.45">
@@ -2173,7 +2175,7 @@
         <v>31</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -2182,7 +2184,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.45">
@@ -2200,7 +2202,7 @@
         <v>32</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -2209,7 +2211,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.45">
@@ -2227,7 +2229,7 @@
         <v>33</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -2236,7 +2238,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.45">
@@ -2251,10 +2253,10 @@
         <v>30</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -2263,7 +2265,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.45">
@@ -2278,10 +2280,10 @@
         <v>30</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2290,7 +2292,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.45">
@@ -2305,10 +2307,10 @@
         <v>30</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2317,7 +2319,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.45">
@@ -2332,10 +2334,10 @@
         <v>30</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2344,7 +2346,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.45">
@@ -2359,10 +2361,10 @@
         <v>30</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2384,10 +2386,10 @@
         <v>30</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2396,7 +2398,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.45">
@@ -2411,10 +2413,10 @@
         <v>30</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2423,7 +2425,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.45">
@@ -2438,10 +2440,10 @@
         <v>30</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -2450,7 +2452,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.45">
@@ -2462,13 +2464,13 @@
         <v>17</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2477,7 +2479,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.45">
@@ -2489,13 +2491,13 @@
         <v>17</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2504,7 +2506,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.45">
@@ -2516,13 +2518,13 @@
         <v>17</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2531,7 +2533,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.45">
@@ -2543,13 +2545,13 @@
         <v>17</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2558,7 +2560,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.45">
@@ -2570,13 +2572,13 @@
         <v>17</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2585,7 +2587,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.45">
@@ -2597,13 +2599,13 @@
         <v>17</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2612,7 +2614,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.45">
@@ -2624,13 +2626,13 @@
         <v>17</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2639,7 +2641,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.45">
@@ -2651,13 +2653,13 @@
         <v>17</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2676,13 +2678,13 @@
         <v>17</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2691,7 +2693,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="3:14" x14ac:dyDescent="0.45">
@@ -2703,13 +2705,13 @@
         <v>17</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2718,7 +2720,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.45">
@@ -2730,13 +2732,13 @@
         <v>17</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2745,7 +2747,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="3:14" x14ac:dyDescent="0.45">
@@ -2754,16 +2756,16 @@
         <v>37</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="G39" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2772,7 +2774,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.45">
@@ -2781,16 +2783,16 @@
         <v>38</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="G40" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2799,7 +2801,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="3:14" x14ac:dyDescent="0.45">
@@ -2808,16 +2810,16 @@
         <v>39</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2826,7 +2828,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.45">
@@ -2835,16 +2837,16 @@
         <v>40</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2853,7 +2855,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="3:14" x14ac:dyDescent="0.45">
@@ -2862,16 +2864,16 @@
         <v>41</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2880,7 +2882,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="3:14" x14ac:dyDescent="0.45">
@@ -2889,16 +2891,16 @@
         <v>42</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2907,7 +2909,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="3:14" x14ac:dyDescent="0.45">
@@ -2916,16 +2918,16 @@
         <v>43</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2934,7 +2936,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="3:14" x14ac:dyDescent="0.45">
@@ -2943,16 +2945,16 @@
         <v>44</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -2961,7 +2963,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="3:14" x14ac:dyDescent="0.45">
@@ -2970,16 +2972,16 @@
         <v>45</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -2988,7 +2990,7 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="3:14" x14ac:dyDescent="0.45">
@@ -2997,16 +2999,16 @@
         <v>46</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -3015,7 +3017,7 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="3:14" x14ac:dyDescent="0.45">
@@ -3024,16 +3026,16 @@
         <v>47</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -3042,7 +3044,7 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="3:14" x14ac:dyDescent="0.45">
@@ -3051,16 +3053,16 @@
         <v>48</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -3069,7 +3071,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="3:14" x14ac:dyDescent="0.45">
@@ -3078,16 +3080,16 @@
         <v>49</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -3103,16 +3105,16 @@
         <v>50</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -3121,7 +3123,7 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="3:14" x14ac:dyDescent="0.45">
@@ -3130,16 +3132,16 @@
         <v>51</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -3155,16 +3157,16 @@
         <v>52</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="G54" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -3173,7 +3175,7 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="3:14" x14ac:dyDescent="0.45">
@@ -3182,16 +3184,16 @@
         <v>53</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -3200,7 +3202,7 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="3:14" x14ac:dyDescent="0.45">
@@ -3209,16 +3211,16 @@
         <v>54</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="G56" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -3227,7 +3229,7 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="3:14" x14ac:dyDescent="0.45">
@@ -3236,16 +3238,16 @@
         <v>55</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -3254,7 +3256,7 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="3:14" x14ac:dyDescent="0.45">
@@ -3263,16 +3265,16 @@
         <v>56</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -3281,7 +3283,7 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="3:14" x14ac:dyDescent="0.45">
@@ -3290,16 +3292,16 @@
         <v>57</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -3308,7 +3310,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="3:14" x14ac:dyDescent="0.45">
@@ -3317,16 +3319,16 @@
         <v>58</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -3335,7 +3337,7 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="3:14" x14ac:dyDescent="0.45">
@@ -3344,16 +3346,16 @@
         <v>59</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -3362,7 +3364,7 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="3:14" x14ac:dyDescent="0.45">
@@ -3371,16 +3373,16 @@
         <v>60</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -3389,7 +3391,7 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="3:14" x14ac:dyDescent="0.45">
@@ -3398,16 +3400,16 @@
         <v>61</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -3416,7 +3418,7 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="3:14" x14ac:dyDescent="0.45">
@@ -3425,16 +3427,16 @@
         <v>62</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -3443,7 +3445,7 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="3:14" x14ac:dyDescent="0.45">
@@ -3452,16 +3454,16 @@
         <v>63</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -3470,7 +3472,7 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="3:14" x14ac:dyDescent="0.45">
@@ -3479,16 +3481,16 @@
         <v>64</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -3504,16 +3506,16 @@
         <v>65</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -3522,7 +3524,7 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="3:14" x14ac:dyDescent="0.45">
@@ -3531,16 +3533,16 @@
         <v>66</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -3555,16 +3557,16 @@
         <v>55</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -3573,7 +3575,7 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="3:14" x14ac:dyDescent="0.45">
@@ -3582,16 +3584,16 @@
         <v>68</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="G70" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -3600,7 +3602,7 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="3:14" x14ac:dyDescent="0.45">
@@ -3609,16 +3611,16 @@
         <v>69</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="G71" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -3627,7 +3629,7 @@
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="3:14" x14ac:dyDescent="0.45">
@@ -3636,16 +3638,16 @@
         <v>70</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F72" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -3654,7 +3656,7 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="3:14" x14ac:dyDescent="0.45">
@@ -3663,16 +3665,16 @@
         <v>71</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -3681,7 +3683,7 @@
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="3:14" x14ac:dyDescent="0.45">
@@ -3690,16 +3692,16 @@
         <v>72</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -3708,7 +3710,7 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="3:14" x14ac:dyDescent="0.45">
@@ -3717,16 +3719,16 @@
         <v>73</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -3735,7 +3737,7 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76" spans="3:14" x14ac:dyDescent="0.45">
@@ -3744,16 +3746,16 @@
         <v>74</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -3762,7 +3764,7 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="3:14" x14ac:dyDescent="0.45">
@@ -3771,16 +3773,16 @@
         <v>75</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -3789,7 +3791,7 @@
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="3:14" x14ac:dyDescent="0.45">
@@ -3798,16 +3800,16 @@
         <v>76</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -3816,7 +3818,7 @@
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="3:14" x14ac:dyDescent="0.45">
@@ -3825,16 +3827,16 @@
         <v>77</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -3843,7 +3845,7 @@
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="3:14" x14ac:dyDescent="0.45">
@@ -3852,16 +3854,16 @@
         <v>78</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -3870,7 +3872,7 @@
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="3:14" x14ac:dyDescent="0.45">
@@ -3879,16 +3881,16 @@
         <v>79</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -3904,16 +3906,16 @@
         <v>80</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -3922,7 +3924,7 @@
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3938,18 +3940,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4124,14 +4126,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -4144,6 +4138,14 @@
     <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
     <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
